--- a/data/case1/2/P2_13.xlsx
+++ b/data/case1/2/P2_13.xlsx
@@ -61,167 +61,167 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>0.076497189660486242</v>
+        <v>0.093421219042667758</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>-0.0099999990737451583</v>
+        <v>-0.0099999996805735236</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>-0.033997828881652481</v>
+        <v>-0.044865883908713045</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.28398729786095345</v>
+        <v>0.28399428578381247</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>-0.0059999991047918755</v>
+        <v>-0.0059999996928228327</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>-0.0059999990779147083</v>
+        <v>-0.0059999996811832546</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>-0.019999998935150032</v>
+        <v>-0.019999999619765063</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>-0.019999998923125872</v>
+        <v>-0.019999999616083564</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>-0.0059999990465549047</v>
+        <v>-0.0059999996720465631</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>-0.0059999990318644336</v>
+        <v>-0.0059999996684041434</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>-0.0044999990447465166</v>
+        <v>-0.0044999996748700255</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>-0.0059999990264079095</v>
+        <v>-0.005999999667515965</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>-0.0059999990111947454</v>
+        <v>-0.0059999996642021713</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>-0.011999998947646695</v>
+        <v>0.003772726859088138</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>-0.0059999990038761553</v>
+        <v>-0.0059999996620918594</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>-0.0059999990009456106</v>
+        <v>-0.0059999996609385597</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>-0.0059999989970140888</v>
+        <v>-0.0059999996594637395</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>-0.0089999989665345836</v>
+        <v>-0.0089999996462131193</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>-0.0089999990829547905</v>
+        <v>-0.0089999996846326091</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>-0.008999999075221865</v>
+        <v>-0.0089999996818388439</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>-0.0089999990741427283</v>
+        <v>-0.0089999996814151828</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>-0.0089999990734836999</v>
+        <v>-0.008999999681112314</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>-0.0089999990705686983</v>
+        <v>-0.0089999996801548576</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>-0.071808801141179934</v>
+        <v>-0.041999999533167021</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>-0.041999998715292364</v>
+        <v>-0.041999999530694332</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>-0.0059999990774990408</v>
+        <v>-0.0059999996802240219</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>-0.0059999990765637889</v>
+        <v>-0.0059999996787505339</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>-0.0059999990730510433</v>
+        <v>-0.0059999996729862559</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>-0.011999999011905516</v>
+        <v>-0.0026365076628813711</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>-0.019999998932651586</v>
+        <v>-0.019999999606655106</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>-0.014999998986180429</v>
+        <v>-0.014999999624970783</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>0.057650393276843737</v>
+        <v>-0.020999999598624086</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>-0.024373208226440291</v>
+        <v>-0.0059999996629569452</v>
       </c>
     </row>
   </sheetData>
